--- a/medicine/Enfance/Joseph-Louis_Sanciaume/Joseph-Louis_Sanciaume.xlsx
+++ b/medicine/Enfance/Joseph-Louis_Sanciaume/Joseph-Louis_Sanciaume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph-Louis Sanciaume, né le 16 novembre 1905[1] à Clermont-Ferrand et mort dans cette même ville le 1er juin 1976, est un auteur français de roman policier, de roman d'amour, de roman d’aventures, de roman d’espionnage et de littérature d’enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph-Louis Sanciaume, né le 16 novembre 1905 à Clermont-Ferrand et mort dans cette même ville le 1er juin 1976, est un auteur français de roman policier, de roman d'amour, de roman d’aventures, de roman d’espionnage et de littérature d’enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il amorce sa prolifique carrière littéraire en 1928 par la publication du roman L’Idole de chair aux éditions de Paris.  L'année suivante, pour les mêmes éditions, il signe Insurgé mexicaine, un roman d'aventures. Dès 1933, il se lance dans le roman policier avec L’Assassin mystérieux, publié à Bruxelles. Il alimente ensuite plusieurs collections policières, et devient notamment, avant la Deuxième Guerre mondiale, l’un des piliers de la collection À ne pas lire la nuit des Éditions de France. Après la guerre plusieurs de ses titres sont réédités dans la collection La Cagoule des Éditions La Bruyère, mêlés à de tout nouveaux romans policiers qu’ils signent parfois J. de Revel et, pour l’éditeur lyonnais Jacquier, Allan H. Murk. Son dernier roman policier, Meurtre à la préfecture, un récit aux nombreux rebondissements, mâtiné d'un lourd sentimentalisme, est paru en 1951 dans la collection Le Masque.
 Après la guerre, Sanciaume produit une demi-douzaine de romans d’amour pour le compte des Éditions des Remparts de Lyon. Il donne aussi la série d'espionnage de l’inspecteur Vitos par Yves Sinclair, un nom collectif sous lequel il collabore avec les auteurs de littérature populaire Moliterni, Jean-Claude Boyer, Jean-Pierre Bernier et Gil Kervel et dont il sert pour signer des pièces radiophoniques. Il utilise aussi le pseudonyme de Louis Caillet pour des adaptations radiophoniques de ses propres romans.
@@ -546,14 +560,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-L’Idole de chair, Paris, Éditions de Paris, 1928 ; réédition, Paris, Raoul Saillard, 1936
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L’Idole de chair, Paris, Éditions de Paris, 1928 ; réédition, Paris, Raoul Saillard, 1936
 Insurgé mexicaine, Paris, Éditions de Paris, 1929
 Voluptés viennoises, Paris, Raoul Saillard, 1935
-Retour par Dunkerque, Toulouse, Éditions Chantal, coll. Le Roman du jour, 1941 (en collaboration avec Julien Sanciaume)
-Romans policiers
-Signés Joseph-Louis Sanciaume
-L’Assassin mystérieux, Bruxelles, Éditions Étoile Rouge, coll. Mystère, 1933 ; réédition, Paris, La Bruyère, coll. La Cagoule no 75, 1950
+Retour par Dunkerque, Toulouse, Éditions Chantal, coll. Le Roman du jour, 1941 (en collaboration avec Julien Sanciaume)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Signés Joseph-Louis Sanciaume</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L’Assassin mystérieux, Bruxelles, Éditions Étoile Rouge, coll. Mystère, 1933 ; réédition, Paris, La Bruyère, coll. La Cagoule no 75, 1950
 L’Astre pourpre, Paris, Baudinière, coll. Sur la piste, 1934
 Le Mystère des Serpentes, Paris, Éditions de France, coll. À ne pas lire la nuit no 53, 1934 ; réédition, Paris, La Bruyère, coll. La Cagoule no 17, 1946
 Fortune maudite, Paris, Baudinière, coll. Sur la piste, 1935
@@ -583,19 +639,132 @@
 Trois mortes au crépuscule, Paris, La Bruyère, coll. La Cagoule no 82, 1951
 Dans de beaux draps, Paris, Éditions du Globe, coll. noire franco-américaine no 15, 1951
 Sinistre Turbin, Paris, Éditions du Globe, coll. noire franco-américaine no 2 2e série, 1952
-Meurtre à la préfecture, Paris, Librairie des Champs-Élysées, Le Masque no 577, 1957
-Signés J. de Revel
-Le Mystère de la chambre 14, Paris, La Bruyère, coll. La Cagoule no 11, 1945
+Meurtre à la préfecture, Paris, Librairie des Champs-Élysées, Le Masque no 577, 1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Signés J. de Revel</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Mystère de la chambre 14, Paris, La Bruyère, coll. La Cagoule no 11, 1945
 L’Erreur tragique, Paris, La Bruyère, coll. La Cagoule no 12, 1945
 Le Secret des momies, Paris, La Bruyère, coll. La Cagoule no 19, 1946
 La Conspiration des 7, Paris, La Bruyère, coll. La Cagoule no 36, 1947
-Tous dans le bain, Paris, Éditions du Globe, coll. noire franco-américaine no 11, 1951
-Signés Allan H. Murk
-Chasse à l’homme, Lyon, Jacquier, coll. La Loupe no 85, 1959
-Sinistre Besogne, Lyon, Jacquier, coll. La Loupe no 92, 1960
-Romans d’espionnage
-Série Inspecteur Vitos signée Yves Sinclair
-Vitos attaque, Paris, Éditions de l’Arabesque, coll. Espionnage no 194, 1945
+Tous dans le bain, Paris, Éditions du Globe, coll. noire franco-américaine no 11, 1951</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Signés Allan H. Murk</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chasse à l’homme, Lyon, Jacquier, coll. La Loupe no 85, 1959
+Sinistre Besogne, Lyon, Jacquier, coll. La Loupe no 92, 1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans d’espionnage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Inspecteur Vitos signée Yves Sinclair</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Vitos attaque, Paris, Éditions de l’Arabesque, coll. Espionnage no 194, 1945
 Vitos se méfie, Paris, Éditions de l’Arabesque, coll. Espionnage no 198, 1945
 Vitos à la parade, Paris, Éditions de l’Arabesque, coll. Espionnage no 202, 1945
 Vitos entre dans la danse, Paris, Éditions de l’Arabesque, coll. Espionnage no 206, 1945
@@ -604,87 +773,276 @@
 Vitos a des idées noires, Paris, Éditions de l’Arabesque, coll. Espionnage no 218, 1945
 Vitos rit jaune, Paris, Éditions de l’Arabesque, coll. Espionnage no 222, 1945
 Vitos met ses petits souliers, Paris, Éditions de l’Arabesque, coll. Espionnage no 226, 1945
-Vitos ne reçoit plus, Paris, Éditions de l’Arabesque, coll. Espionnage no 230, 1945
-Autres romans signés Joseph-Louis Sanciaume
-L’Étrange Croisière du « Devil », Toulouse, Éditions Chantal, Série Aventures, 1945 ; réédition signée Allan H. Murk, Lyon, Jacquier, coll. La Loupe  - Espionnage no 38, 1956
+Vitos ne reçoit plus, Paris, Éditions de l’Arabesque, coll. Espionnage no 230, 1945</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans d’espionnage</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres romans signés Joseph-Louis Sanciaume</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L’Étrange Croisière du « Devil », Toulouse, Éditions Chantal, Série Aventures, 1945 ; réédition signée Allan H. Murk, Lyon, Jacquier, coll. La Loupe  - Espionnage no 38, 1956
 Le Cyclone, Toulouse, Éditions Chantal, Série Aventures, 1945
 Maquis d’Auvergne, Paris, La Bruyère, 1945
-Crimes à Haïti, Lyon, Jacquier, coll. La Loupe - Espionnage no 5, 1953
-Autre roman signé Allan H. Murk
-Affolant Week-end, Lyon, Jacquier, coll. La Loupe - Espionnage no 84, 1960
-Romans d’amour
-La Fugitive, Toulouse, Éditions de Chantal, coll. Le Roman de Madame, 1944
+Crimes à Haïti, Lyon, Jacquier, coll. La Loupe - Espionnage no 5, 1953</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans d’espionnage</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autre roman signé Allan H. Murk</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Affolant Week-end, Lyon, Jacquier, coll. La Loupe - Espionnage no 84, 1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans d’amour</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La Fugitive, Toulouse, Éditions de Chantal, coll. Le Roman de Madame, 1944
 La Route dangereuse, Lyon, Éditions des Remparts, coll. Mirabelle no 44, 1956
 L’Appel dans la nuit, Lyon, Éditions des Remparts, coll. Mirabelle no 53, 1957
 Reine des îles, Lyon, Éditions des Remparts, coll. Mirabelle no 65, 1958
 La Grotte bleue, Lyon, Éditions des Remparts, coll. Mirabelle no 74, 1959
 Le Lac aux turquoises, Lyon, Éditions des Remparts, coll. Mirabelle no 92, 1960
-La Vallée des Herpierre, Lyon, Éditions des Remparts, coll. Mirabelle no 188, 1965
-Littérature d’enfance et de jeunesse
-Signée Jean-Louis Sanciaume
-L’Ombre dans les flammes, Paris, Dupuis, coll. Bibliothèque jaune no 28, 1938
+La Vallée des Herpierre, Lyon, Éditions des Remparts, coll. Mirabelle no 188, 1965</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Signée Jean-Louis Sanciaume</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L’Ombre dans les flammes, Paris, Dupuis, coll. Bibliothèque jaune no 28, 1938
 La Mort aux mains blanches, Paris, Dupuis, coll. Bibliothèque jaune no 46, 1938 ; réédition signée J. de Revel, Lyon, Éditions de Puits-Pelu, coll. Le Glaive no 72, 1952
-L’Étrange Aventure d’Étienne, Toulouse, Éditions du Clocher, coll. Pour la jeunesse no 18, 1940
-Signée René d’Ailly
-L’Aventure mexicaine, Albi, Éditions méridionales, Collection de la jeunesse – Série rouge no 6, 1944</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Joseph-Louis_Sanciaume</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Joseph-Louis_Sanciaume</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+L’Étrange Aventure d’Étienne, Toulouse, Éditions du Clocher, coll. Pour la jeunesse no 18, 1940</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Signée René d’Ailly</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L’Aventure mexicaine, Albi, Éditions méridionales, Collection de la jeunesse – Série rouge no 6, 1944</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Grand Prix du Roman d’Action 1947 pour La Dame aux topazes</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Joseph-Louis_Sanciaume</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Joseph-Louis_Sanciaume</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joseph-Louis_Sanciaume</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Adaptation cinématographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>1947 : L’Homme de la nuit, film français de René Jayet, d’après le roman homonyme, avec Albert Préjean, Junie Astor, Francine Bessy et Fernand Fabre.</t>
         </is>
